--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2011.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2011.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.032*"yes" + 0.023*"foreign" + 0.015*"abroad" + 0.014*"exchange" + 0.014*"bank" + 0.013*"currency" + 0.012*"may" + 0.011*"nonresident" + 0.011*"security" + 0.010*"transaction"</t>
-  </si>
-  <si>
-    <t>0.031*"yes" + 0.022*"exchange" + 0.020*"foreign" + 0.014*"currency" + 0.013*"resident" + 0.012*"nonresident" + 0.012*"bank" + 0.011*"may" + 0.011*"transaction" + 0.010*"abroad"</t>
-  </si>
-  <si>
-    <t>0.003*"yes" + 0.003*"exchange" + 0.003*"foreign" + 0.002*"may" + 0.002*"abroad" + 0.002*"bank" + 0.002*"currency" + 0.002*"investment" + 0.002*"transaction" + 0.002*"security"</t>
-  </si>
-  <si>
-    <t>0.033*"yes" + 0.029*"exchange" + 0.025*"foreign" + 0.016*"nonresident" + 0.014*"bank" + 0.013*"abroad" + 0.011*"resident" + 0.011*"investment" + 0.010*"currency" + 0.010*"rate"</t>
-  </si>
-  <si>
-    <t>0.031*"yes" + 0.029*"foreign" + 0.025*"exchange" + 0.013*"resident" + 0.012*"abroad" + 0.012*"account" + 0.011*"investment" + 0.011*"bank" + 0.010*"currency" + 0.010*"nonresident"</t>
+    <t>0.276*"yes" + 0.034*"approval" + 0.030*"limit" + 0.028*"transfer" + 0.026*"payment" + 0.021*"prior" + 0.021*"quantitative" + 0.021*"indicative" + 0.021*"fide" + 0.021*"test"</t>
+  </si>
+  <si>
+    <t>0.047*"resident" + 0.047*"nonresident" + 0.040*"abroad" + 0.037*"foreign" + 0.036*"investment" + 0.035*"account" + 0.028*"purchase" + 0.025*"issue" + 0.023*"currency" + 0.022*"security"</t>
+  </si>
+  <si>
+    <t>0.084*"exchange" + 0.050*"foreign" + 0.035*"rate" + 0.033*"market" + 0.032*"currency" + 0.026*"transaction" + 0.022*"arrangement" + 0.017*"payment" + 0.014*"trade" + 0.013*"control"</t>
+  </si>
+  <si>
+    <t>0.048*"import" + 0.035*"export" + 0.033*"requirement" + 0.021*"exchange" + 0.019*"license" + 0.018*"surrender" + 0.014*"restriction" + 0.014*"tax" + 0.013*"measure" + 0.012*"payment"</t>
+  </si>
+  <si>
+    <t>0.025*"may" + 0.019*"bank" + 0.015*"must" + 0.013*"country" + 0.012*"foreign" + 0.012*"company" + 0.011*"financial" + 0.010*"entity" + 0.008*"institution" + 0.008*"insurance"</t>
   </si>
 </sst>
 </file>
